--- a/data/trans_orig/P14B29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D0F443-F9DD-4D62-B026-B30B18E8E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4584E3D-278B-4BF1-B80D-1F6ED2FAD6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6F95ACA-5759-419A-80D0-D525554CFECD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC7DF5F-060F-45AB-92C8-ABB4653A301F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="258">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -106,13 +106,13 @@
     <t>94,2%</t>
   </si>
   <si>
-    <t>68,98%</t>
+    <t>69,32%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>67,13%</t>
+    <t>71,35%</t>
   </si>
   <si>
     <t>48,47%</t>
@@ -121,13 +121,13 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>31,02%</t>
+    <t>30,68%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>32,87%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -136,19 +136,19 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -157,37 +157,37 @@
     <t>83,72%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -199,19 +199,19 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>51,66%</t>
@@ -220,67 +220,67 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,31 +304,37 @@
     <t>56,09%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>73,81%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>26,19%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>45,24%</t>
@@ -337,19 +343,19 @@
     <t>69,58%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>54,76%</t>
@@ -358,19 +364,19 @@
     <t>30,42%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -379,19 +385,19 @@
     <t>78,96%</t>
   </si>
   <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -400,109 +406,115 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
+    <t>18,0%</t>
+  </si>
+  <si>
     <t>61,37%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
+    <t>82,0%</t>
+  </si>
+  <si>
     <t>38,63%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -517,19 +529,19 @@
     <t>80,83%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>19,26%</t>
@@ -541,109 +553,115 @@
     <t>19,17%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>40,33%</t>
+    <t>40,97%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>71,95%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>59,67%</t>
+    <t>59,03%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>28,05%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>84,47%</t>
   </si>
   <si>
-    <t>50,9%</t>
+    <t>55,26%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>49,1%</t>
+    <t>44,74%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>79,67%</t>
@@ -655,19 +673,19 @@
     <t>74,81%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>20,33%</t>
@@ -679,34 +697,34 @@
     <t>25,19%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>12,54%</t>
+    <t>11,6%</t>
   </si>
   <si>
     <t>71,61%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>69,21%</t>
@@ -715,28 +733,28 @@
     <t>56,17%</t>
   </si>
   <si>
-    <t>78,42%</t>
+    <t>79,09%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>87,46%</t>
+    <t>88,4%</t>
   </si>
   <si>
     <t>28,39%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>21,58%</t>
+    <t>20,91%</t>
   </si>
   <si>
     <t>43,83%</t>
@@ -745,55 +763,55 @@
     <t>74,25%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70321880-C13E-414E-B40B-0D335C2BFDBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A8830E-0B46-4A4F-BC3C-274C04A84FEB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2256,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C05E8C-0B35-4321-A94B-8BF72164BD49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABF5DF-8806-42E0-B9A0-931ABCC1B86F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2568,10 +2586,10 @@
         <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2619,13 @@
         <v>10449</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2616,13 +2634,13 @@
         <v>11250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2708,7 @@
         <v>1739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
@@ -2705,13 +2723,13 @@
         <v>24756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2720,13 +2738,13 @@
         <v>26495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2759,7 @@
         <v>2106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -2756,13 +2774,13 @@
         <v>10825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2771,13 +2789,13 @@
         <v>12931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2860,13 +2878,13 @@
         <v>24360</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2875,13 +2893,13 @@
         <v>26598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2920,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2911,13 +2929,13 @@
         <v>6491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2926,13 +2944,13 @@
         <v>6491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,10 +3018,10 @@
         <v>2662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -3015,13 +3033,13 @@
         <v>17760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3030,13 +3048,13 @@
         <v>20423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3069,13 @@
         <v>1125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3066,13 +3084,13 @@
         <v>11178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3081,13 +3099,13 @@
         <v>12303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3173,13 @@
         <v>7740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3170,13 +3188,13 @@
         <v>82237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -3188,10 +3206,10 @@
         <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3224,13 @@
         <v>4032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3221,13 +3239,13 @@
         <v>39926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3239,10 +3257,10 @@
         <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6F311D-1907-4449-BA60-60C537D6E7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1BEB2B-4C15-4A47-B05E-931344294AC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3336,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3443,10 +3461,10 @@
         <v>1927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -3458,13 +3476,13 @@
         <v>8780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3473,13 +3491,13 @@
         <v>10707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3512,13 @@
         <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3509,13 +3527,13 @@
         <v>2083</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3524,13 +3542,13 @@
         <v>2543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3616,10 @@
         <v>3902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -3613,13 +3631,13 @@
         <v>25911</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -3628,13 +3646,13 @@
         <v>29812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3667,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3664,13 +3682,13 @@
         <v>5217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3679,13 +3697,13 @@
         <v>5890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +3771,10 @@
         <v>7353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -3768,13 +3786,13 @@
         <v>38918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -3783,13 +3801,13 @@
         <v>46271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3822,13 @@
         <v>1352</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3819,13 +3837,13 @@
         <v>5738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3834,13 +3852,13 @@
         <v>7090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,10 +3926,10 @@
         <v>3690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -3923,13 +3941,13 @@
         <v>25561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3938,13 +3956,13 @@
         <v>29251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3977,13 @@
         <v>941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3974,13 +3992,13 @@
         <v>8609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3989,13 +4007,13 @@
         <v>9550</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,10 +4081,10 @@
         <v>5141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -4078,13 +4096,13 @@
         <v>39729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -4093,13 +4111,13 @@
         <v>44869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4132,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4129,13 +4147,13 @@
         <v>15748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4144,13 +4162,13 @@
         <v>19958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4236,13 @@
         <v>22012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -4233,13 +4251,13 @@
         <v>138898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -4248,13 +4266,13 @@
         <v>160910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4287,13 @@
         <v>7636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4284,13 +4302,13 @@
         <v>37395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -4299,13 +4317,13 @@
         <v>45031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4584E3D-278B-4BF1-B80D-1F6ED2FAD6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D13732-3DC5-44EC-AEF2-5523363C4B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CC7DF5F-060F-45AB-92C8-ABB4653A301F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA21823-A6CE-4651-AD79-80ADEC071C52}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="260">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -97,7 +97,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,53%</t>
@@ -106,13 +106,13 @@
     <t>94,2%</t>
   </si>
   <si>
-    <t>69,32%</t>
+    <t>70,08%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>71,35%</t>
+    <t>72,55%</t>
   </si>
   <si>
     <t>48,47%</t>
@@ -121,73 +121,73 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>30,68%</t>
+    <t>29,92%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>90,48%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -199,19 +199,19 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>51,66%</t>
@@ -220,34 +220,34 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>83,52%</t>
@@ -256,28 +256,28 @@
     <t>74,92%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,33%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,67%</t>
   </si>
   <si>
     <t>25,08%</t>
@@ -286,7 +286,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya osteoporosis le limita en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población cuya osteoporosis le limita en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>67,18%</t>
@@ -295,46 +295,52 @@
     <t>75,99%</t>
   </si>
   <si>
+    <t>23,33%</t>
+  </si>
+  <si>
     <t>32,82%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
+    <t>76,67%</t>
+  </si>
+  <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>45,24%</t>
@@ -343,19 +349,19 @@
     <t>69,58%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>54,76%</t>
@@ -364,19 +370,19 @@
     <t>30,42%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>32,8%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -385,19 +391,19 @@
     <t>78,96%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -406,19 +412,19 @@
     <t>21,04%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
   </si>
   <si>
     <t>70,29%</t>
@@ -430,19 +436,19 @@
     <t>61,37%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>29,71%</t>
@@ -454,67 +460,67 @@
     <t>38,63%</t>
   </si>
   <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>37,59%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -1223,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A8830E-0B46-4A4F-BC3C-274C04A84FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F878718F-434C-4445-B0F8-968E9977FA96}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2274,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABF5DF-8806-42E0-B9A0-931ABCC1B86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EFEDA7-5E3C-433F-A14E-F0D7A93201EE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2431,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>12</v>
@@ -2464,7 +2470,7 @@
         <v>983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -2479,13 +2485,13 @@
         <v>983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2574,13 @@
         <v>13348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2583,13 +2589,13 @@
         <v>13348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2625,13 @@
         <v>10449</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -2634,13 +2640,13 @@
         <v>11250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2714,7 @@
         <v>1739</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
@@ -2723,13 +2729,13 @@
         <v>24756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -2738,13 +2744,13 @@
         <v>26495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2765,7 @@
         <v>2106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -2774,13 +2780,13 @@
         <v>10825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2789,13 +2795,13 @@
         <v>12931</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2878,13 +2884,13 @@
         <v>24360</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2893,13 +2899,13 @@
         <v>26598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2929,13 +2935,13 @@
         <v>6491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2944,13 +2950,13 @@
         <v>6491</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,10 +3024,10 @@
         <v>2662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -3033,13 +3039,13 @@
         <v>17760</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3048,13 +3054,13 @@
         <v>20423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3075,13 @@
         <v>1125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3084,13 +3090,13 @@
         <v>11178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3099,13 +3105,13 @@
         <v>12303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>7740</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -3188,13 +3194,13 @@
         <v>82237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -3206,10 +3212,10 @@
         <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3230,13 @@
         <v>4032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3239,13 +3245,13 @@
         <v>39926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3254,13 +3260,13 @@
         <v>43959</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1BEB2B-4C15-4A47-B05E-931344294AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A799429-133E-418F-AA3A-E5406E0FE468}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3354,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3461,10 +3467,10 @@
         <v>1927</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -3476,13 +3482,13 @@
         <v>8780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -3491,13 +3497,13 @@
         <v>10707</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3518,13 @@
         <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3527,13 +3533,13 @@
         <v>2083</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3542,13 +3548,13 @@
         <v>2543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,10 +3622,10 @@
         <v>3902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -3631,13 +3637,13 @@
         <v>25911</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -3646,13 +3652,13 @@
         <v>29812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3673,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3682,13 +3688,13 @@
         <v>5217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3697,13 +3703,13 @@
         <v>5890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3777,10 @@
         <v>7353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -3786,13 +3792,13 @@
         <v>38918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -3801,13 +3807,13 @@
         <v>46271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3828,13 @@
         <v>1352</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3837,13 +3843,13 @@
         <v>5738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -3852,13 +3858,13 @@
         <v>7090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,10 +3932,10 @@
         <v>3690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -3941,13 +3947,13 @@
         <v>25561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3956,13 +3962,13 @@
         <v>29251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3983,13 @@
         <v>941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -3992,13 +3998,13 @@
         <v>8609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -4007,13 +4013,13 @@
         <v>9550</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,10 +4087,10 @@
         <v>5141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
@@ -4096,13 +4102,13 @@
         <v>39729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -4111,13 +4117,13 @@
         <v>44869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4138,13 @@
         <v>4209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4147,13 +4153,13 @@
         <v>15748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4162,13 +4168,13 @@
         <v>19958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4242,13 @@
         <v>22012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -4251,13 +4257,13 @@
         <v>138898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -4266,13 +4272,13 @@
         <v>160910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4293,13 @@
         <v>7636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4302,13 +4308,13 @@
         <v>37395</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -4317,13 +4323,13 @@
         <v>45031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
